--- a/django.xlsx
+++ b/django.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\Documents\Betting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089EDC68-AAA4-4C2F-82FF-C295C18EDD52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B163D0-1C61-4A4E-80BE-8D3C07BB2959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6620" xr2:uid="{5FD36733-4ACB-4F05-BB09-EA20A4C2F836}"/>
   </bookViews>
@@ -25,44 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>py -m venv C:\Users\camer\Documents\...</t>
-  </si>
-  <si>
-    <t>Create VENV</t>
-  </si>
-  <si>
-    <t>Activate (with bash)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> source venv/Scripts/activate</t>
-  </si>
-  <si>
-    <t>Run server</t>
-  </si>
-  <si>
-    <t>python manage.py runserver</t>
-  </si>
-  <si>
-    <t>Create App</t>
-  </si>
-  <si>
-    <t>python manage.py startapp …</t>
-  </si>
-  <si>
-    <t>Migrate</t>
-  </si>
-  <si>
-    <t>python manage.py migrate</t>
-  </si>
-  <si>
-    <t>python manage.py makemigrations</t>
-  </si>
-  <si>
-    <t>Create Migrations</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,66 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8625AA0A-9DE2-454C-A7D7-87992C34AF8F}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>